--- a/gams/sumSum_Q_DA.xlsx
+++ b/gams/sumSum_Q_DA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\WS24\Research Project\gams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8058382-E650-4BCB-AB1B-097676D2A039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8477D064-7C1D-433D-BE52-413DB8FA2CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10665" yWindow="2520" windowWidth="7500" windowHeight="6000" xr2:uid="{83B95EDD-FEF9-4987-B087-851AD8F550AD}"/>
+    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{83B95EDD-FEF9-4987-B087-851AD8F550AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>0.59986892273755432</v>
+        <v>23.563621121796732</v>
       </c>
     </row>
   </sheetData>

--- a/gams/sumSum_Q_DA.xlsx
+++ b/gams/sumSum_Q_DA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\WS24\Research Project\gams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8477D064-7C1D-433D-BE52-413DB8FA2CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DD542E-2274-448F-BCF3-C037A6C8E4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{83B95EDD-FEF9-4987-B087-851AD8F550AD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{83B95EDD-FEF9-4987-B087-851AD8F550AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
